--- a/docs/APIs_sequence.xlsx
+++ b/docs/APIs_sequence.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve">API</t>
   </si>
@@ -28,7 +28,10 @@
     <t xml:space="preserve">URL</t>
   </si>
   <si>
-    <t xml:space="preserve">Login</t>
+    <t xml:space="preserve">Login – Basic Auth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login – Guest Auth</t>
   </si>
   <si>
     <t xml:space="preserve">Server</t>
@@ -82,6 +85,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -103,12 +107,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,16 +193,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.94"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -217,56 +223,61 @@
       <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
